--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/15/seed1/result_data_RandomForest.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.949200000000001</v>
+        <v>9.020199999999996</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.07149999999999</v>
+        <v>-11.98219999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>5.495000000000002</v>
+        <v>5.429100000000002</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.6854</v>
+        <v>5.344899999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.26690000000001</v>
+        <v>-10.2262</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6505</v>
+        <v>-10.58169999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.055299999999997</v>
+        <v>4.9396</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.36619999999999</v>
+        <v>-14.39609999999998</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.49429999999999</v>
+        <v>-11.94959999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.0272</v>
+        <v>-11.2685</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -712,10 +712,10 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.667399999999985</v>
+        <v>9.657999999999989</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.503</v>
+        <v>-12.5254</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.6525</v>
+        <v>-11.9207</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.892000000000001</v>
+        <v>5.829600000000004</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.301100000000003</v>
+        <v>5.445500000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.2448</v>
+        <v>-13.4529</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.629999999999996</v>
+        <v>6.700399999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.62160000000001</v>
+        <v>-11.7525</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -992,10 +992,10 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.066099999999992</v>
+        <v>9.176499999999988</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.2398</v>
+        <v>-12.66670000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.69000000000001</v>
+        <v>-12.43650000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.5855</v>
+        <v>-11.922</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1037,7 +1037,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.85149999999999</v>
+        <v>-13.16759999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.089200000000001</v>
+        <v>5.413100000000003</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.9258</v>
+        <v>-12.18159999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.9852</v>
+        <v>-12.169</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.261599999999998</v>
+        <v>5.399699999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.928299999999997</v>
+        <v>5.436399999999996</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.227099999999998</v>
+        <v>5.420499999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.657400000000003</v>
+        <v>4.502800000000002</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,7 +1300,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.0865</v>
+        <v>5.144499999999996</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.2086</v>
+        <v>-10.1649</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.8687</v>
+        <v>-10.38819999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.819499999999998</v>
+        <v>5.197700000000001</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.8469</v>
+        <v>8.810399999999996</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.009499999999989</v>
+        <v>8.971099999999993</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.1306</v>
+        <v>-12.2085</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.52369999999999</v>
+        <v>-14.18109999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.96459999999999</v>
+        <v>-13.6525</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.849899999999997</v>
+        <v>4.718999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.5633</v>
+        <v>-10.6598</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>4.785700000000003</v>
+        <v>4.732300000000003</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
